--- a/data/3202.xlsx
+++ b/data/3202.xlsx
@@ -2987,37 +2987,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.5</v>
       </c>
-      <c r="C2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.2</v>
-      </c>
       <c r="I2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3">
@@ -3027,37 +3027,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="C3" t="n">
-        <v>9.300000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="E3" t="n">
-        <v>7.8</v>
+        <v>2.9</v>
       </c>
       <c r="F3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G3" t="n">
         <v>4.6</v>
       </c>
-      <c r="G3" t="n">
-        <v>7.5</v>
-      </c>
       <c r="H3" t="n">
-        <v>4.6</v>
+        <v>6.8</v>
       </c>
       <c r="I3" t="n">
-        <v>5.6</v>
+        <v>8.6</v>
       </c>
       <c r="J3" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
@@ -3067,37 +3067,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="D4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J4" t="n">
         <v>7.8</v>
       </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.3</v>
-      </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3107,34 +3107,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="C5" t="n">
-        <v>4.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>8.800000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="E5" t="n">
-        <v>4.4</v>
+        <v>6.8</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>5.4</v>
       </c>
       <c r="G5" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>6.7</v>
+        <v>8.1</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>8.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="L5" t="n">
         <v>7.2</v>
@@ -3147,37 +3147,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.6</v>
+        <v>8.6</v>
       </c>
       <c r="C6" t="n">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="F6" t="n">
-        <v>8.5</v>
+        <v>6.2</v>
       </c>
       <c r="G6" t="n">
-        <v>9.9</v>
+        <v>6.6</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>7.8</v>
       </c>
       <c r="I6" t="n">
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="L6" t="n">
-        <v>9.199999999999999</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -3187,37 +3187,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="C7" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="D7" t="n">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>4.9</v>
+        <v>7.5</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="J7" t="n">
-        <v>6.8</v>
+        <v>1.6</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="8">
@@ -3227,37 +3227,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="C8" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6</v>
+        <v>6.4</v>
       </c>
       <c r="E8" t="n">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="F8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.4</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.5</v>
-      </c>
       <c r="H8" t="n">
-        <v>1.9</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="J8" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>4.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="9">
@@ -3267,37 +3267,37 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L9" t="n">
         <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.8</v>
       </c>
     </row>
     <row r="10">
@@ -3307,37 +3307,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.2</v>
+        <v>7.4</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="E10" t="n">
-        <v>8.9</v>
+        <v>5.2</v>
       </c>
       <c r="F10" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="G10" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>6.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.4</v>
+        <v>8.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="K10" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="11">
@@ -3347,37 +3347,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="D11" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="E11" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L11" t="n">
         <v>5.8</v>
-      </c>
-      <c r="F11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -3387,37 +3387,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="C12" t="n">
-        <v>8.6</v>
+        <v>7.3</v>
       </c>
       <c r="D12" t="n">
-        <v>9.6</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>9.6</v>
+        <v>4.6</v>
       </c>
       <c r="F12" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="G12" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="J12" t="n">
         <v>7.4</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -3427,37 +3427,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E13" t="n">
         <v>6.6</v>
       </c>
-      <c r="E13" t="n">
-        <v>9.9</v>
-      </c>
       <c r="F13" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="H13" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="I13" t="n">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="J13" t="n">
-        <v>8.4</v>
+        <v>4.6</v>
       </c>
       <c r="K13" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="14">
@@ -3467,37 +3467,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J14" t="n">
         <v>5.8</v>
       </c>
-      <c r="D14" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="K14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L14" t="n">
         <v>3.4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>6.4</v>
       </c>
     </row>
     <row r="15">
@@ -3507,37 +3507,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
       <c r="C15" t="n">
-        <v>9.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="D15" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="E15" t="n">
-        <v>9.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="F15" t="n">
-        <v>3.1</v>
+        <v>9.5</v>
       </c>
       <c r="G15" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J15" t="n">
         <v>5.4</v>
       </c>
-      <c r="H15" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>8</v>
-      </c>
       <c r="K15" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="L15" t="n">
-        <v>6.3</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="16">
@@ -3547,37 +3547,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="C16" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="D16" t="n">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="E16" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="F16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
       </c>
       <c r="I16" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="J16" t="n">
-        <v>5.6</v>
+        <v>8.9</v>
       </c>
       <c r="K16" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="L16" t="n">
-        <v>9.199999999999999</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="17">
@@ -3587,37 +3587,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="C17" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="D17" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>8.1</v>
       </c>
       <c r="H17" t="n">
         <v>7.2</v>
       </c>
       <c r="I17" t="n">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
       <c r="J17" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="L17" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="18">
@@ -3627,37 +3627,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>9.6</v>
       </c>
       <c r="C18" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G18" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="D18" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E18" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4</v>
-      </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="I18" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L18" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="19">
@@ -3667,37 +3667,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="C19" t="n">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="D19" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4</v>
+        <v>4.3</v>
       </c>
       <c r="G19" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
         <v>4.6</v>
       </c>
       <c r="J19" t="n">
-        <v>9.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L19" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="20">
@@ -3707,37 +3707,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="C20" t="n">
-        <v>5.6</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="E20" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>5.9</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>9.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>8.1</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>4.8</v>
+        <v>8.6</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="L20" t="n">
-        <v>3.1</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="21">
@@ -3747,37 +3747,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5</v>
+        <v>6.8</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="D21" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H21" t="n">
         <v>7.4</v>
       </c>
-      <c r="E21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>2.2</v>
       </c>
-      <c r="H21" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6.2</v>
-      </c>
       <c r="J21" t="n">
-        <v>8.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="L21" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -3787,37 +3787,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>6.6</v>
+        <v>8.5</v>
       </c>
       <c r="D22" t="n">
-        <v>8.4</v>
+        <v>4.6</v>
       </c>
       <c r="E22" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F22" t="n">
         <v>5.6</v>
       </c>
-      <c r="F22" t="n">
-        <v>7.7</v>
-      </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H22" t="n">
-        <v>9.699999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>5.8</v>
+        <v>7.1</v>
       </c>
       <c r="J22" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="L22" t="n">
-        <v>6.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -3827,37 +3827,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="C23" t="n">
-        <v>5.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="E23" t="n">
-        <v>8.800000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="F23" t="n">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="G23" t="n">
-        <v>6.2</v>
+        <v>0.9</v>
       </c>
       <c r="H23" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.2</v>
       </c>
-      <c r="I23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L23" t="n">
-        <v>5.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -3867,37 +3867,37 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F24" t="n">
         <v>8.4</v>
       </c>
-      <c r="C24" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="G24" t="n">
         <v>7.8</v>
       </c>
-      <c r="E24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F24" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="G24" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="H24" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>3.1</v>
+        <v>6.9</v>
       </c>
       <c r="J24" t="n">
+        <v>9</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>7.2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>6.1</v>
       </c>
     </row>
     <row r="25">
@@ -3907,37 +3907,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>9.4</v>
+        <v>7.1</v>
       </c>
       <c r="E25" t="n">
-        <v>8.4</v>
+        <v>5.7</v>
       </c>
       <c r="F25" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>8.300000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="J25" t="n">
-        <v>9.300000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="L25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="26">
@@ -3950,34 +3950,34 @@
         <v>8.5</v>
       </c>
       <c r="C26" t="n">
-        <v>8.9</v>
+        <v>5.8</v>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="E26" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="F26" t="n">
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
       <c r="G26" t="n">
-        <v>8</v>
+        <v>6.1</v>
       </c>
       <c r="H26" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>9.4</v>
+        <v>6.4</v>
       </c>
       <c r="J26" t="n">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="L26" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="27">
@@ -3987,37 +3987,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.7</v>
+        <v>9.9</v>
       </c>
       <c r="C27" t="n">
+        <v>9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L27" t="n">
         <v>5.9</v>
-      </c>
-      <c r="D27" t="n">
-        <v>7</v>
-      </c>
-      <c r="E27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G27" t="n">
-        <v>5</v>
-      </c>
-      <c r="H27" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.8</v>
       </c>
     </row>
     <row r="28">
@@ -4027,37 +4027,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.800000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="C28" t="n">
-        <v>9.6</v>
+        <v>3.7</v>
       </c>
       <c r="D28" t="n">
-        <v>6.7</v>
+        <v>9.1</v>
       </c>
       <c r="E28" t="n">
-        <v>7.6</v>
+        <v>4.9</v>
       </c>
       <c r="F28" t="n">
-        <v>3.1</v>
+        <v>8.5</v>
       </c>
       <c r="G28" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="H28" t="n">
-        <v>9.1</v>
+        <v>6.4</v>
       </c>
       <c r="I28" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="K28" t="n">
-        <v>4.4</v>
+        <v>7.8</v>
       </c>
       <c r="L28" t="n">
-        <v>7.8</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="29">
@@ -4067,37 +4067,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="C29" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="D29" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K29" t="n">
         <v>4.4</v>
       </c>
-      <c r="E29" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F29" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G29" t="n">
-        <v>7</v>
-      </c>
-      <c r="H29" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>8.9</v>
-      </c>
       <c r="L29" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="30">
@@ -4156,6 +4156,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Trimestres</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>FIL</t>
@@ -4299,37 +4304,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.232142857142857</v>
+        <v>7.124999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>6.942857142857143</v>
+        <v>6.896428571428571</v>
       </c>
       <c r="D4" t="n">
-        <v>5.953571428571428</v>
+        <v>5.989285714285715</v>
       </c>
       <c r="E4" t="n">
-        <v>6.392857142857141</v>
+        <v>5.885714285714286</v>
       </c>
       <c r="F4" t="n">
-        <v>5.246428571428572</v>
+        <v>5.950000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>5.964285714285714</v>
+        <v>5.582142857142857</v>
       </c>
       <c r="H4" t="n">
-        <v>5.353571428571428</v>
+        <v>6.117857142857145</v>
       </c>
       <c r="I4" t="n">
-        <v>5.575</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
-        <v>6.85357142857143</v>
+        <v>6.660714285714286</v>
       </c>
       <c r="K4" t="n">
-        <v>2.032142857142857</v>
+        <v>2.589285714285715</v>
       </c>
       <c r="L4" t="n">
-        <v>5.735714285714287</v>
+        <v>6.089285714285715</v>
       </c>
     </row>
   </sheetData>

--- a/data/3202.xlsx
+++ b/data/3202.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2T" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3T" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Média por Trimestre" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gostos pessoais" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,198 +502,198 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Otávio Vidal Fraga</t>
+          <t>Alexandre Nogueira Gimenes</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="E2" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>7.7</v>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>9.1</v>
       </c>
       <c r="H2" t="n">
         <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="L2" t="n">
-        <v>2.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Tiago Nakata Cerqueira</t>
+          <t>Caio Cerqueira Cardoso</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="D3" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="E3" t="n">
-        <v>9.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>6.1</v>
+        <v>7.7</v>
       </c>
       <c r="G3" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="H3" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="I3" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J3" t="n">
         <v>7.8</v>
       </c>
-      <c r="J3" t="n">
-        <v>7.2</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fernando Madruga Ximenes</t>
+          <t>Carlos Fagundes dos Santos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.2</v>
+        <v>9.5</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Marcelo Melo Dias</t>
+          <t>Cristina Ávila Linhares</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="K5" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Renato Amaral Nakamura</t>
+          <t>Davi Chaves Bitencourt</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="C6" t="n">
-        <v>8.5</v>
-      </c>
       <c r="D6" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="E6" t="n">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="F6" t="n">
-        <v>7.3</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="n">
         <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="J6" t="n">
-        <v>8.5</v>
+        <v>6.6</v>
       </c>
       <c r="K6" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>7</v>
@@ -701,472 +702,472 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Davi Chaves Bitencourt</t>
+          <t>Eduarda Oliveira de Matos</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="E7" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="G7" t="n">
-        <v>4.6</v>
+        <v>6.5</v>
       </c>
       <c r="H7" t="n">
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="J7" t="n">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Juliano Fontes Brandão</t>
+          <t>Elza Salles Teixeira</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Ricardo Aguiar Ito</t>
+          <t>Felipe Delgado Camargo</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="F9" t="n">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
-        <v>7.8</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
         <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>6.8</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
-        <v>8.300000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="L9" t="n">
-        <v>7.6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Felipe Delgado Camargo</t>
+          <t>Fernando Madruga Ximenes</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="E10" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="F10" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="H10" t="n">
         <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="K10" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.6</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Luiz Cardoso Shinoda</t>
+          <t>Flávia Madruga Arruda</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="C11" t="n">
-        <v>8.5</v>
+        <v>9.4</v>
       </c>
       <c r="D11" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E11" t="n">
-        <v>8.6</v>
+        <v>6.3</v>
       </c>
       <c r="F11" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="G11" t="n">
-        <v>7.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I11" t="n">
-        <v>7.7</v>
+        <v>9.6</v>
       </c>
       <c r="J11" t="n">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Vinícius Pires de Azevedo</t>
+          <t>Juliano Fontes Brandão</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="G12" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Moacir Pimentel de Ávila</t>
+          <t>Julio Espíndola Martins</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>7.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="F13" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
         <v>7.2</v>
       </c>
-      <c r="G13" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
       <c r="J13" t="n">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Miguel Chaves Araújo</t>
+          <t>Júnior Morais Padilha</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D14" t="n">
         <v>6.8</v>
       </c>
-      <c r="D14" t="n">
-        <v>3.6</v>
-      </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>6.1</v>
       </c>
       <c r="F14" t="n">
-        <v>3.9</v>
+        <v>7.6</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>7.3</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I14" t="n">
-        <v>6.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Julio Espíndola Martins</t>
+          <t>Leila Nogueira da Fonseca</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>9.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="E15" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K15" t="n">
         <v>7.2</v>
       </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="L15" t="n">
         <v>6.7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Alexandre Nogueira Gimenes</t>
+          <t>Luiz Cardoso Shinoda</t>
         </is>
       </c>
       <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
         <v>8.5</v>
       </c>
-      <c r="C16" t="n">
-        <v>10</v>
-      </c>
       <c r="D16" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="E16" t="n">
-        <v>4.6</v>
+        <v>8.6</v>
       </c>
       <c r="F16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I16" t="n">
         <v>7.7</v>
       </c>
-      <c r="G16" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6.2</v>
-      </c>
       <c r="J16" t="n">
-        <v>4.4</v>
+        <v>6.6</v>
       </c>
       <c r="K16" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>5.7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pablo Santana da Fonseca</t>
+          <t>Marcela Falcão Duarte</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="C17" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H17" t="n">
         <v>7</v>
       </c>
-      <c r="D17" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F17" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
       <c r="I17" t="n">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="J17" t="n">
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Caio Cerqueira Cardoso</t>
+          <t>Marcelo Melo Dias</t>
         </is>
       </c>
       <c r="B18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" t="n">
         <v>7</v>
       </c>
-      <c r="C18" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="F18" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="G18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I18" t="n">
-        <v>9.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="J18" t="n">
         <v>7.8</v>
@@ -1175,44 +1176,44 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Carlos Fagundes dos Santos</t>
+          <t>Miguel Chaves Araújo</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="J19" t="n">
-        <v>9.5</v>
+        <v>7.1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1221,401 +1222,401 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Júnior Morais Padilha</t>
+          <t>Moacir Pimentel de Ávila</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="C20" t="n">
-        <v>8.800000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="D20" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="E20" t="n">
-        <v>6.1</v>
+        <v>7.6</v>
       </c>
       <c r="F20" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="G20" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="H20" t="n">
         <v>6.5</v>
       </c>
       <c r="I20" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>9.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Rosana Vieira Braga</t>
+          <t>Otávio Vidal Fraga</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>7.2</v>
+        <v>4.3</v>
       </c>
       <c r="E21" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>8.699999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>9.9</v>
+        <v>6</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>6.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Cristina Ávila Linhares</t>
+          <t>Pablo Santana da Fonseca</t>
         </is>
       </c>
       <c r="B22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
         <v>7</v>
       </c>
-      <c r="C22" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="D22" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="E22" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F22" t="n">
         <v>8.1</v>
       </c>
-      <c r="F22" t="n">
-        <v>6.8</v>
-      </c>
       <c r="G22" t="n">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="H22" t="n">
         <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J22" t="n">
-        <v>8.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Valentina Monteiro Belchior</t>
+          <t>Renato Amaral Nakamura</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="D23" t="n">
-        <v>3.7</v>
+        <v>6.5</v>
       </c>
       <c r="E23" t="n">
-        <v>6.1</v>
+        <v>7.4</v>
       </c>
       <c r="F23" t="n">
-        <v>3.6</v>
+        <v>7.3</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>6.2</v>
+        <v>8.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="L23" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Marcela Falcão Duarte</t>
+          <t>Ricardo Aguiar Ito</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="C24" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J24" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="D24" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="G24" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>9.9</v>
-      </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Elza Salles Teixeira</t>
+          <t>Rosana Vieira Braga</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.300000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="C25" t="n">
-        <v>8.9</v>
+        <v>7.3</v>
       </c>
       <c r="D25" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E25" t="n">
         <v>5.6</v>
       </c>
-      <c r="E25" t="n">
-        <v>5.5</v>
-      </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G25" t="n">
-        <v>4.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I25" t="n">
-        <v>4.6</v>
+        <v>6.1</v>
       </c>
       <c r="J25" t="n">
-        <v>8.199999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="K25" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Flávia Madruga Arruda</t>
+          <t>Thaís Camargo Mendes</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>9.4</v>
+        <v>6.3</v>
       </c>
       <c r="D26" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7</v>
+      </c>
+      <c r="G26" t="n">
         <v>6.5</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K26" t="n">
+        <v>9</v>
+      </c>
+      <c r="L26" t="n">
         <v>6.3</v>
-      </c>
-      <c r="F26" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="G26" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>8.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Eduarda Oliveira de Matos</t>
+          <t>Tiago Nakata Cerqueira</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="D27" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="E27" t="n">
-        <v>4.8</v>
+        <v>9.5</v>
       </c>
       <c r="F27" t="n">
-        <v>4.7</v>
+        <v>6.1</v>
       </c>
       <c r="G27" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I27" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="J27" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Zilda Medeiras Menezes</t>
+          <t>Valentina Monteiro Belchior</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="E28" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="F28" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="G28" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
         <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>3.5</v>
+        <v>6.3</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Leila Nogueira da Fonseca</t>
+          <t>Vinícius Pires de Azevedo</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="C29" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="G29" t="n">
         <v>7.5</v>
       </c>
       <c r="H29" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="30">
@@ -1661,41 +1662,41 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Thaís Camargo Mendes</t>
+          <t>Zilda Medeiras Menezes</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>7.9</v>
+        <v>6.4</v>
       </c>
       <c r="F31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J31" t="n">
         <v>7</v>
       </c>
-      <c r="G31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>7.8</v>
-      </c>
       <c r="K31" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>
@@ -1782,272 +1783,272 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Otávio Vidal Fraga</t>
+          <t>Alexandre Nogueira Gimenes</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C2" t="n">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>4.3</v>
+        <v>8.5</v>
       </c>
       <c r="E2" t="n">
-        <v>5.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>9.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Tiago Nakata Cerqueira</t>
+          <t>Caio Cerqueira Cardoso</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>7.4</v>
       </c>
       <c r="C3" t="n">
-        <v>8.300000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="D3" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>3.6</v>
+        <v>6.8</v>
       </c>
       <c r="F3" t="n">
-        <v>4.1</v>
+        <v>7.8</v>
       </c>
       <c r="G3" t="n">
-        <v>4.6</v>
+        <v>7.3</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>6.7</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fernando Madruga Ximenes</t>
+          <t>Carlos Fagundes dos Santos</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E4" t="n">
         <v>8.5</v>
       </c>
-      <c r="C4" t="n">
+      <c r="F4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="D4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6</v>
-      </c>
       <c r="J4" t="n">
-        <v>9.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Marcelo Melo Dias</t>
+          <t>Cristina Ávila Linhares</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="C5" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
         <v>8.6</v>
       </c>
-      <c r="D5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="G5" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="H5" t="n">
         <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Renato Amaral Nakamura</t>
+          <t>Davi Chaves Bitencourt</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.199999999999999</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>8.300000000000001</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>7.4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Davi Chaves Bitencourt</t>
+          <t>Eduarda Oliveira de Matos</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>8.4</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E7" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G7" t="n">
         <v>6</v>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5.4</v>
-      </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Juliano Fontes Brandão</t>
+          <t>Elza Salles Teixeira</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D8" t="n">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.5</v>
-      </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
         <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J8" t="n">
         <v>7.4</v>
@@ -2056,847 +2057,847 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Ricardo Aguiar Ito</t>
+          <t>Felipe Delgado Camargo</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>8.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>5.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>5.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>4.2</v>
+        <v>7.8</v>
       </c>
       <c r="G9" t="n">
-        <v>4.9</v>
+        <v>7.2</v>
       </c>
       <c r="H9" t="n">
         <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>7.1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>4.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Felipe Delgado Camargo</t>
+          <t>Fernando Madruga Ximenes</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="C10" t="n">
-        <v>8.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="E10" t="n">
-        <v>8.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="G10" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="I10" t="n">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>6.5</v>
+        <v>9.4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>7.7</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Luiz Cardoso Shinoda</t>
+          <t>Flávia Madruga Arruda</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="D11" t="n">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="F11" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="H11" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>7.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Vinícius Pires de Azevedo</t>
+          <t>Juliano Fontes Brandão</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>9.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="E12" t="n">
-        <v>8.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
         <v>7</v>
       </c>
-      <c r="H12" t="n">
-        <v>7.5</v>
-      </c>
       <c r="I12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Moacir Pimentel de Ávila</t>
+          <t>Julio Espíndola Martins</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.5</v>
+        <v>8.6</v>
       </c>
       <c r="C13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="L13" t="n">
         <v>6.6</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Miguel Chaves Araújo</t>
+          <t>Júnior Morais Padilha</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F14" t="n">
         <v>9.5</v>
       </c>
-      <c r="E14" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6.2</v>
-      </c>
       <c r="G14" t="n">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="H14" t="n">
         <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>7.4</v>
+        <v>4.7</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="L14" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Julio Espíndola Martins</t>
+          <t>Leila Nogueira da Fonseca</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.6</v>
+        <v>6.1</v>
       </c>
       <c r="C15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="D15" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="E15" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G15" t="n">
         <v>6</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7.2</v>
       </c>
       <c r="H15" t="n">
         <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="K15" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
-        <v>6.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Alexandre Nogueira Gimenes</t>
+          <t>Luiz Cardoso Shinoda</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="C16" t="n">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" t="n">
         <v>8.5</v>
       </c>
-      <c r="E16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="G16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
       <c r="I16" t="n">
-        <v>8.800000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="J16" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pablo Santana da Fonseca</t>
+          <t>Marcela Falcão Duarte</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>6.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="F17" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J17" t="n">
         <v>8</v>
       </c>
-      <c r="G17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>8.5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Caio Cerqueira Cardoso</t>
+          <t>Marcelo Melo Dias</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
         <v>6.8</v>
       </c>
       <c r="F18" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="H18" t="n">
         <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="J18" t="n">
-        <v>9.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Carlos Fagundes dos Santos</t>
+          <t>Miguel Chaves Araújo</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.800000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="C19" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E19" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="D19" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="E19" t="n">
-        <v>8.5</v>
-      </c>
       <c r="F19" t="n">
-        <v>8.4</v>
+        <v>6.2</v>
       </c>
       <c r="G19" t="n">
-        <v>7.7</v>
+        <v>6.1</v>
       </c>
       <c r="H19" t="n">
+        <v>7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J19" t="n">
         <v>6</v>
       </c>
-      <c r="I19" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>8.300000000000001</v>
-      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Júnior Morais Padilha</t>
+          <t>Moacir Pimentel de Ávila</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="C20" t="n">
-        <v>8.300000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="D20" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="E20" t="n">
-        <v>9.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>9.5</v>
+        <v>1.9</v>
       </c>
       <c r="G20" t="n">
-        <v>7.3</v>
+        <v>3.9</v>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>7.1</v>
+        <v>8.4</v>
       </c>
       <c r="K20" t="n">
-        <v>9.5</v>
+        <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>7.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Rosana Vieira Braga</t>
+          <t>Otávio Vidal Fraga</t>
         </is>
       </c>
       <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G21" t="n">
         <v>3.8</v>
       </c>
-      <c r="C21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Cristina Ávila Linhares</t>
+          <t>Pablo Santana da Fonseca</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="C22" t="n">
-        <v>8.9</v>
+        <v>6.6</v>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="F22" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
         <v>7.5</v>
       </c>
-      <c r="H22" t="n">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>7</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Valentina Monteiro Belchior</t>
+          <t>Renato Amaral Nakamura</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="D23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="F23" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="H23" t="n">
         <v>7</v>
       </c>
       <c r="I23" t="n">
-        <v>6.3</v>
+        <v>4.9</v>
       </c>
       <c r="J23" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="K23" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Marcela Falcão Duarte</t>
+          <t>Ricardo Aguiar Ito</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.199999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="C24" t="n">
-        <v>9.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="D24" t="n">
-        <v>9.199999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="E24" t="n">
-        <v>8.5</v>
+        <v>5.8</v>
       </c>
       <c r="F24" t="n">
-        <v>6.3</v>
+        <v>4.2</v>
       </c>
       <c r="G24" t="n">
-        <v>8.4</v>
+        <v>4.9</v>
       </c>
       <c r="H24" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="I24" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L24" t="n">
-        <v>8.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Elza Salles Teixeira</t>
+          <t>Rosana Vieira Braga</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.8</v>
+        <v>3.8</v>
       </c>
       <c r="C25" t="n">
-        <v>7.6</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="E25" t="n">
-        <v>7.1</v>
+        <v>1.5</v>
       </c>
       <c r="F25" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Flávia Madruga Arruda</t>
+          <t>Tiago Nakata Cerqueira</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="C26" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>7.1</v>
+        <v>3.6</v>
       </c>
       <c r="F26" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="G26" t="n">
-        <v>6.1</v>
+        <v>4.6</v>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="J26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Eduarda Oliveira de Matos</t>
+          <t>Valentina Monteiro Belchior</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="D27" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="F27" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="G27" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="L27" t="n">
         <v>6</v>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L27" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Zilda Medeiras Menezes</t>
+          <t>Vinícius Pires de Azevedo</t>
         </is>
       </c>
       <c r="B28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I28" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="C28" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="J28" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E28" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="F28" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="G28" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>6</v>
-      </c>
       <c r="K28" t="n">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>6.7</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Leila Nogueira da Fonseca</t>
+          <t>Zilda Medeiras Menezes</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>9.1</v>
+        <v>6.7</v>
       </c>
       <c r="D29" t="n">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F29" t="n">
         <v>6.3</v>
       </c>
-      <c r="F29" t="n">
-        <v>4.5</v>
-      </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="H29" t="n">
         <v>7</v>
       </c>
       <c r="I29" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J29" t="n">
         <v>6</v>
       </c>
-      <c r="J29" t="n">
-        <v>7.8</v>
-      </c>
       <c r="K29" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="L29" t="n">
-        <v>3.5</v>
+        <v>6.7</v>
       </c>
     </row>
   </sheetData>
@@ -2983,1121 +2984,1099 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Otávio Vidal Fraga</t>
+          <t>Alexandre Nogueira Gimenes</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="E2" t="n">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>5.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Tiago Nakata Cerqueira</t>
+          <t>Caio Cerqueira Cardoso</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="D3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E3" t="n">
         <v>7.8</v>
       </c>
-      <c r="E3" t="n">
-        <v>2.9</v>
-      </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="G3" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>6.8</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L3" t="n">
         <v>6.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fernando Madruga Ximenes</t>
+          <t>Carlos Fagundes dos Santos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="C4" t="n">
-        <v>8.6</v>
+        <v>6.2</v>
       </c>
       <c r="D4" t="n">
-        <v>7.3</v>
+        <v>2.7</v>
       </c>
       <c r="E4" t="n">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="n">
-        <v>9.199999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="G4" t="n">
-        <v>6.6</v>
+        <v>4.4</v>
       </c>
       <c r="H4" t="n">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>6.1</v>
       </c>
       <c r="J4" t="n">
-        <v>7.8</v>
+        <v>5.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Marcelo Melo Dias</t>
+          <t>Cristina Ávila Linhares</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="D5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L5" t="n">
         <v>5.6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>7.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Renato Amaral Nakamura</t>
+          <t>Davi Chaves Bitencourt</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.6</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>8.800000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="E6" t="n">
-        <v>5.4</v>
+        <v>8.1</v>
       </c>
       <c r="F6" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="G6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I6" t="n">
         <v>6.6</v>
       </c>
-      <c r="H6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6</v>
-      </c>
       <c r="J6" t="n">
-        <v>6.6</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Davi Chaves Bitencourt</t>
+          <t>Eduarda Oliveira de Matos</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.5</v>
+        <v>7.7</v>
       </c>
       <c r="C7" t="n">
-        <v>4.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>7.8</v>
       </c>
       <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H7" t="n">
         <v>7.5</v>
       </c>
-      <c r="F7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>2.2</v>
       </c>
-      <c r="I7" t="n">
-        <v>1.2</v>
-      </c>
       <c r="J7" t="n">
-        <v>1.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Juliano Fontes Brandão</t>
+          <t>Elza Salles Teixeira</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="C8" t="n">
-        <v>4.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>1.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1</v>
+        <v>8.4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4</v>
+        <v>4.6</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="J8" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
-        <v>6.8</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Ricardo Aguiar Ito</t>
+          <t>Felipe Delgado Camargo</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.4</v>
+        <v>4.3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.300000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="D9" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="E9" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="G9" t="n">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="H9" t="n">
-        <v>9.6</v>
+        <v>5.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>6.1</v>
+        <v>4.6</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Felipe Delgado Camargo</t>
+          <t>Fernando Madruga Ximenes</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="D10" t="n">
-        <v>2.7</v>
+        <v>6.9</v>
       </c>
       <c r="E10" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L10" t="n">
         <v>4.2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Luiz Cardoso Shinoda</t>
+          <t>Flávia Madruga Arruda</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
       <c r="C11" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="D11" t="n">
         <v>6.4</v>
       </c>
       <c r="E11" t="n">
-        <v>8.1</v>
+        <v>5.3</v>
       </c>
       <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
         <v>4.2</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.9</v>
-      </c>
       <c r="H11" t="n">
-        <v>7.1</v>
+        <v>5.8</v>
       </c>
       <c r="I11" t="n">
-        <v>8.800000000000001</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>7.1</v>
+        <v>8.6</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>5.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Vinícius Pires de Azevedo</t>
+          <t>Juliano Fontes Brandão</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.4</v>
+        <v>3.5</v>
       </c>
       <c r="C12" t="n">
-        <v>7.3</v>
+        <v>4.3</v>
       </c>
       <c r="D12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L12" t="n">
         <v>3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Moacir Pimentel de Ávila</t>
+          <t>Julio Espíndola Martins</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>9.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="D13" t="n">
-        <v>9.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="E13" t="n">
         <v>6.6</v>
       </c>
       <c r="F13" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>4.6</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="J13" t="n">
-        <v>4.6</v>
+        <v>9.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="L13" t="n">
-        <v>4.4</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Miguel Chaves Araújo</t>
+          <t>Júnior Morais Padilha</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.300000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="C14" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="D14" t="n">
-        <v>7.2</v>
+        <v>9.9</v>
       </c>
       <c r="E14" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>7.3</v>
       </c>
       <c r="H14" t="n">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>8.4</v>
       </c>
       <c r="J14" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="L14" t="n">
-        <v>3.4</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Julio Espíndola Martins</t>
+          <t>Leila Nogueira da Fonseca</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.8</v>
+        <v>3.2</v>
       </c>
       <c r="C15" t="n">
-        <v>5.4</v>
+        <v>8.4</v>
       </c>
       <c r="D15" t="n">
-        <v>7.8</v>
+        <v>3.4</v>
       </c>
       <c r="E15" t="n">
-        <v>6.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>9.5</v>
+        <v>4.6</v>
       </c>
       <c r="G15" t="n">
-        <v>8.4</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="I15" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>5.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L15" t="n">
-        <v>9.9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Alexandre Nogueira Gimenes</t>
+          <t>Luiz Cardoso Shinoda</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.8</v>
+        <v>9.1</v>
       </c>
       <c r="C16" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>7.4</v>
+        <v>3.7</v>
       </c>
       <c r="E16" t="n">
-        <v>7.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>8.699999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="G16" t="n">
-        <v>8.800000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="H16" t="n">
-        <v>9.9</v>
+        <v>6.8</v>
       </c>
       <c r="I16" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>8.9</v>
+        <v>7.3</v>
       </c>
       <c r="K16" t="n">
-        <v>6.9</v>
+        <v>3.9</v>
       </c>
       <c r="L16" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pablo Santana da Fonseca</t>
+          <t>Marcela Falcão Duarte</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>3.1</v>
+        <v>7.8</v>
       </c>
       <c r="D17" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="F17" t="n">
-        <v>9.6</v>
+        <v>6.8</v>
       </c>
       <c r="G17" t="n">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="H17" t="n">
-        <v>7.2</v>
+        <v>4.6</v>
       </c>
       <c r="I17" t="n">
-        <v>5.7</v>
+        <v>9.9</v>
       </c>
       <c r="J17" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="L17" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Caio Cerqueira Cardoso</t>
+          <t>Marcelo Melo Dias</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.6</v>
+        <v>8.5</v>
       </c>
       <c r="C18" t="n">
-        <v>9.1</v>
+        <v>4.9</v>
       </c>
       <c r="D18" t="n">
-        <v>6.1</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="F18" t="n">
-        <v>4.4</v>
+        <v>6.8</v>
       </c>
       <c r="G18" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="H18" t="n">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K18" t="n">
         <v>5</v>
       </c>
-      <c r="J18" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.6</v>
-      </c>
       <c r="L18" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Carlos Fagundes dos Santos</t>
+          <t>Miguel Chaves Araújo</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="D19" t="n">
-        <v>2.7</v>
+        <v>7.2</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="F19" t="n">
-        <v>4.3</v>
+        <v>8.4</v>
       </c>
       <c r="G19" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="I19" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="J19" t="n">
-        <v>8.699999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="L19" t="n">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Júnior Morais Padilha</t>
+          <t>Moacir Pimentel de Ávila</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.1</v>
+        <v>2.6</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="D20" t="n">
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="G20" t="n">
-        <v>8.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="I20" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="J20" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="K20" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="L20" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Rosana Vieira Braga</t>
+          <t>Otávio Vidal Fraga</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.8</v>
+        <v>1.5</v>
       </c>
       <c r="C21" t="n">
-        <v>4.9</v>
+        <v>7.2</v>
       </c>
       <c r="D21" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="F21" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="G21" t="n">
-        <v>8.4</v>
+        <v>4.6</v>
       </c>
       <c r="H21" t="n">
-        <v>7.4</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>7.6</v>
       </c>
       <c r="K21" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Cristina Ávila Linhares</t>
+          <t>Pablo Santana da Fonseca</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.699999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="C22" t="n">
-        <v>8.5</v>
+        <v>5.4</v>
       </c>
       <c r="D22" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H22" t="n">
         <v>4.6</v>
       </c>
-      <c r="E22" t="n">
+      <c r="I22" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>7.2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="G22" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="K22" t="n">
-        <v>6</v>
-      </c>
-      <c r="L22" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Valentina Monteiro Belchior</t>
+          <t>Renato Amaral Nakamura</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.4</v>
+        <v>9.9</v>
       </c>
       <c r="C23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>4.2</v>
+        <v>8.9</v>
       </c>
       <c r="E23" t="n">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
-        <v>7.6</v>
+        <v>5.8</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9</v>
+        <v>6.1</v>
       </c>
       <c r="H23" t="n">
-        <v>8.199999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="I23" t="n">
-        <v>6.1</v>
+        <v>5.1</v>
       </c>
       <c r="J23" t="n">
-        <v>8.4</v>
+        <v>4.8</v>
       </c>
       <c r="K23" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Marcela Falcão Duarte</t>
+          <t>Ricardo Aguiar Ito</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>9.6</v>
       </c>
       <c r="C24" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="D24" t="n">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="E24" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>8.4</v>
+        <v>4.1</v>
       </c>
       <c r="G24" t="n">
-        <v>7.8</v>
+        <v>3.6</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="I24" t="n">
-        <v>6.9</v>
+        <v>5.2</v>
       </c>
       <c r="J24" t="n">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="L24" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Elza Salles Teixeira</t>
+          <t>Rosana Vieira Braga</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>2.8</v>
       </c>
       <c r="C25" t="n">
-        <v>8.199999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="D25" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="E25" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="F25" t="n">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="G25" t="n">
         <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="J25" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="K25" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="L25" t="n">
-        <v>9.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Flávia Madruga Arruda</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="D26" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="E26" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F26" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="G26" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="I26" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L26" t="n">
-        <v>6.6</v>
-      </c>
+          <t>Thaís Camargo Mendes</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Eduarda Oliveira de Matos</t>
+          <t>Tiago Nakata Cerqueira</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="D27" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>2.4</v>
       </c>
       <c r="G27" t="n">
-        <v>8.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>5.9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Zilda Medeiras Menezes</t>
+          <t>Valentina Monteiro Belchior</t>
         </is>
       </c>
       <c r="B28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D28" t="n">
         <v>3.7</v>
       </c>
-      <c r="C28" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D28" t="n">
-        <v>9.1</v>
-      </c>
       <c r="E28" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="F28" t="n">
-        <v>8.5</v>
+        <v>9.6</v>
       </c>
       <c r="G28" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H28" t="n">
-        <v>6.4</v>
+        <v>2.6</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>7.9</v>
       </c>
       <c r="J28" t="n">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="K28" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L28" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Leila Nogueira da Fonseca</t>
+          <t>Vinícius Pires de Azevedo</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.4</v>
+        <v>4.8</v>
       </c>
       <c r="C29" t="n">
-        <v>8.4</v>
+        <v>5.9</v>
       </c>
       <c r="D29" t="n">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
       <c r="E29" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="J29" t="n">
-        <v>7.8</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>5.6</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="30">
@@ -4121,20 +4100,42 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Thaís Camargo Mendes</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+          <t>Zilda Medeiras Menezes</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L31" t="n">
+        <v>9.199999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4304,37 +4305,1913 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.124999999999999</v>
+        <v>6.610714285714283</v>
       </c>
       <c r="C4" t="n">
-        <v>6.896428571428571</v>
+        <v>7.039285714285714</v>
       </c>
       <c r="D4" t="n">
-        <v>5.989285714285715</v>
+        <v>6.564285714285715</v>
       </c>
       <c r="E4" t="n">
-        <v>5.885714285714286</v>
+        <v>5.728571428571429</v>
       </c>
       <c r="F4" t="n">
-        <v>5.950000000000001</v>
+        <v>5.699999999999998</v>
       </c>
       <c r="G4" t="n">
-        <v>5.582142857142857</v>
+        <v>5.639285714285713</v>
       </c>
       <c r="H4" t="n">
-        <v>6.117857142857145</v>
+        <v>4.757142857142857</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>6.39642857142857</v>
       </c>
       <c r="J4" t="n">
-        <v>6.660714285714286</v>
+        <v>6.167857142857143</v>
       </c>
       <c r="K4" t="n">
-        <v>2.589285714285715</v>
+        <v>3.082142857142857</v>
       </c>
       <c r="L4" t="n">
-        <v>6.089285714285715</v>
+        <v>6.189285714285714</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo de deslocamento diário</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo de prática de esportes semanal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo de jogo semanal</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo investido em leitura(lazer) semanalmente</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo investido em séries semanalmente</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Meio de Transporte</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Matérias preferidas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Séries preferidas</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Preferência exercício físico/esportes</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Preferência VideoGames</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Adelaide Takeda Sá</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>19</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Metrô, Ônibus</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>FIL, FRA, HIS, GEO</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Futebol, Natação</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>DotA2, Fortnite</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Arthur Nunes Delchiaro</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21</v>
+      </c>
+      <c r="F3" t="n">
+        <v>18</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A pé, Metrô, Bicicleta, Van</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>HIS</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Greys anatomy</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Nenhum, Academia</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Lol, Xadrez, Fortnite</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Artur Furtado Rosário</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>21</v>
+      </c>
+      <c r="F4" t="n">
+        <v>19</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ônibus, Bicicleta, Metrô, Van</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>HIS</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Balé, Corrida, Nenhum, Academia</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Fortnite, Fifa, Xadrez</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carlos Bosco Ferraz</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29</v>
+      </c>
+      <c r="E5" t="n">
+        <v>23</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Uber, A pé</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>FIL, HIS, FRA, BIO, QUI, FIS, SOC</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>The Office</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Corrida</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Fortnite, Xadrez, Lol</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carlos Serrano Silveira</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E6" t="n">
+        <v>27</v>
+      </c>
+      <c r="F6" t="n">
+        <v>22</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A pé, Bicicleta</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>BIO, MAT, FIL, QUI, FIS, HIS</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Futebol, Corrida, Academia, Vôlei</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Lol, DotA2, Fifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Caroline Pessoa Bernardes</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>29</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bicicleta, A pé, Metrô</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>HIS, SOC</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Greys anatomy</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Balé, Academia, Futebol, Corrida</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Xadrez, Minecraft</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conrado Yamada Pires</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Van, Ônibus</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>POR, GEO, BIO</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Nenhum, Natação, Balé</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Minecraft, Fifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Daiana Saraiva Lacerda</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>FRA, FIS, GEO, QUI, SOC</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Balé, Corrida, Nenhum, Futebol</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Lol, Fifa, DotA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Daniela Pinto Lobo</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>24</v>
+      </c>
+      <c r="F10" t="n">
+        <v>19</v>
+      </c>
+      <c r="G10" t="n">
+        <v>28</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Bicicleta</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>HIS, FIL, MAT, SOC, FRA</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Greys anatomy</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Nenhum, Corrida, Vôlei, Academia</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Fortnite, Minecraft, Lol</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eloísa Magalhães Lobo</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>22</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>26</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Uber</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SOC, FRA, BIO, POR, DES, QUI, GEO</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Greys anatomy</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Corrida</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>DotA2, Fortnite, Fifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Erasmo Vale Belchior</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>16</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14</v>
+      </c>
+      <c r="F12" t="n">
+        <v>27</v>
+      </c>
+      <c r="G12" t="n">
+        <v>26</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Uber, Bicicleta, Metrô, A pé</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>MAT, BIO, DES, GEO, HIS, SOC</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Balé, Natação, Academia</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>DotA2, Xadrez</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Francisco Rocha Barroso</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>18</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>22</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ônibus, Van</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>FIL, FRA, SOC, HIS, BIO, GEO, POR, QUI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Vôlei, Academia, Natação, Balé</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Fortnite, Minecraft</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gabriel Leitão Falcão</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" t="n">
+        <v>30</v>
+      </c>
+      <c r="E14" t="n">
+        <v>18</v>
+      </c>
+      <c r="F14" t="n">
+        <v>23</v>
+      </c>
+      <c r="G14" t="n">
+        <v>27</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>A pé, Metrô, Bicicleta</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>GEO, FIS, MAT</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Academia, Balé</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Lol, DotA2, Fortnite</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Geraldo Melo Linhares</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>17</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21</v>
+      </c>
+      <c r="E15" t="n">
+        <v>26</v>
+      </c>
+      <c r="F15" t="n">
+        <v>30</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Uber, Carro</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>BIO, DES</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>The Office</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Vôlei, Academia, Futebol, Balé</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Xadrez, Fifa, Minecraft</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Gilson Marques Pinto</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>23</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Van, Uber, Ônibus</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Nenhum, Vôlei, Natação</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Fifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Giovane Leal Ramos</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>27</v>
+      </c>
+      <c r="G17" t="n">
+        <v>27</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Carro, Bicicleta, Van, Metrô</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>FIL, SOC, DES, FRA</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Futebol, Corrida, Natação</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Minecraft, Lol</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Gisele Couto Queiroz</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>28</v>
+      </c>
+      <c r="G18" t="n">
+        <v>26</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Ônibus, Van, Metrô, Uber</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>QUI, HIS, SOC, DES, BIO, MAT, FIL, GEO</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Greys anatomy</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Nenhum, Futebol</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Xadrez, DotA2, Lol</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Janaína Pedroso Bernardes</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>16</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>A pé, Bicicleta</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>FIS, POR, HIS, GEO, BIO, MAT, FIL</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Greys anatomy</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>DotA2, Xadrez, Fifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Juliana Watanabe Gomes</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>28</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" t="n">
+        <v>24</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Uber, Bicicleta, Van, Metrô</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>FRA, GEO, FIS, HIS, QUI, FIL</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Vôlei</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Fortnite, DotA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Jéssica Clemente Cabral</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>19</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Metrô, Uber, Ônibus, A pé</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>DES, FIL</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Academia, Vôlei, Corrida, Balé</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Minecraft</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Kléber Rosa dos Reis</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>17</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>27</v>
+      </c>
+      <c r="G22" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>QUI, MAT</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Balé, Corrida, Futebol, Vôlei</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>DotA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Lúcio Macedo Magalhães</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="n">
+        <v>19</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>15</v>
+      </c>
+      <c r="G23" t="n">
+        <v>21</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>A pé, Carro</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>FIL</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Academia</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>DotA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Marcelo Cruz Justino</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G24" t="n">
+        <v>18</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Bicicleta</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>SOC, POR, BIO, MAT, GEO, FIL, HIS, FIS</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Greys anatomy</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Academia, Corrida, Nenhum, Futebol</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Xadrez, DotA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Marília Correia Pires</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>13</v>
+      </c>
+      <c r="D25" t="n">
+        <v>12</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>21</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Carro, A pé, Ônibus, Bicicleta</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>BIO, FRA, GEO, MAT, FIL, FIS</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>The Office</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Balé, Corrida, Vôlei</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Fortnite, Minecraft</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Milton Gimenes Batista</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>22</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>30</v>
+      </c>
+      <c r="G26" t="n">
+        <v>29</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Van, Carro</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>HIS</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Balé, Corrida, Futebol, Nenhum</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Minecraft, Fifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Miriam Santos Furtado</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>19</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9</v>
+      </c>
+      <c r="F27" t="n">
+        <v>26</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Ônibus, Bicicleta, Metrô</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>POR, SOC, QUI, FRA, GEO, FIS, HIS</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>The Office</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Fortnite, Lol</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Moacir Marques Correia</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20</v>
+      </c>
+      <c r="E28" t="n">
+        <v>17</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" t="n">
+        <v>16</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Metrô, Carro, Van, A pé</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>DES, HIS, FIS, QUI, SOC, POR</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Nenhum, Corrida</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Lol, Minecraft, Xadrez</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Márcia Ruiz Medina</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>11</v>
+      </c>
+      <c r="D29" t="n">
+        <v>26</v>
+      </c>
+      <c r="E29" t="n">
+        <v>21</v>
+      </c>
+      <c r="F29" t="n">
+        <v>20</v>
+      </c>
+      <c r="G29" t="n">
+        <v>14</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>A pé, Uber, Ônibus</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>GEO, QUI, SOC, POR, DES, FIL, FRA</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Greys anatomy</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Nenhum, Natação, Balé, Corrida</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Lol</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Paola Meireles Canto</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>18</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>13</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>24</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Carro, Metrô</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>FIL, FRA, QUI</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Balé, Futebol, Nenhum</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>DotA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Rafaela Assunção Medeiras</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>13</v>
+      </c>
+      <c r="D31" t="n">
+        <v>27</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>15</v>
+      </c>
+      <c r="G31" t="n">
+        <v>27</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Ônibus, Bicicleta, Uber, Van</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>POR, SOC, MAT, FIL, QUI, BIO, DES</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Corrida, Nenhum, Futebol, Natação</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Lol, Fortnite, Minecraft</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Reginaldo Belluci Madruga</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>27</v>
+      </c>
+      <c r="D32" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" t="n">
+        <v>22</v>
+      </c>
+      <c r="F32" t="n">
+        <v>18</v>
+      </c>
+      <c r="G32" t="n">
+        <v>22</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Uber, Metrô, Carro, A pé</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>BIO, HIS, FIL</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Academia, Futebol, Natação, Balé</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Fifa, DotA2, Lol</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Roberto Tavares Cerqueira</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>17</v>
+      </c>
+      <c r="D33" t="n">
+        <v>25</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9</v>
+      </c>
+      <c r="F33" t="n">
+        <v>15</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Uber</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>BIO, SOC, HIS, FIS</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>The Office</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Fifa, Xadrez</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Tadeu Fontes Paim</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>17</v>
+      </c>
+      <c r="D34" t="n">
+        <v>30</v>
+      </c>
+      <c r="E34" t="n">
+        <v>18</v>
+      </c>
+      <c r="F34" t="n">
+        <v>18</v>
+      </c>
+      <c r="G34" t="n">
+        <v>27</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Bicicleta, Ônibus, Uber</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>GEO, FIS, SOC, FRA, HIS, QUI, DES</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Nenhum, Balé, Vôlei, Academia</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Fifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Teresa Fonseca Alencar</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>19</v>
+      </c>
+      <c r="D35" t="n">
+        <v>28</v>
+      </c>
+      <c r="E35" t="n">
+        <v>12</v>
+      </c>
+      <c r="F35" t="n">
+        <v>14</v>
+      </c>
+      <c r="G35" t="n">
+        <v>26</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>A pé</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>GEO, MAT, HIS</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Balé, Corrida, Natação, Vôlei</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Xadrez, Fifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Vitor Andrade Damasceno</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" t="n">
+        <v>23</v>
+      </c>
+      <c r="G36" t="n">
+        <v>22</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Bicicleta</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>GEO, POR, FIL, HIS, QUI, FIS, DES</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Balé</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Fifa, Xadrez</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Ágata Andrade de Assis</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>25</v>
+      </c>
+      <c r="F37" t="n">
+        <v>30</v>
+      </c>
+      <c r="G37" t="n">
+        <v>28</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Bicicleta, Uber</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>DES, BIO</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Vôlei, Futebol, Corrida</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Minecraft, DotA2</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/3202.xlsx
+++ b/data/3202.xlsx
@@ -13,6 +13,7 @@
     <sheet name="3T" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Média por Trimestre" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Gostos pessoais" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="MF" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="223">
   <si>
     <t xml:space="preserve">Estudante</t>
   </si>
@@ -162,6 +163,9 @@
   </si>
   <si>
     <t xml:space="preserve">3T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MF</t>
   </si>
   <si>
     <t xml:space="preserve">Unnamed: 0</t>
@@ -779,8 +783,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -808,1189 +816,1190 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>6.4</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>4.6</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>7.7</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>9.1</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>6.2</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>4.4</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="1" t="n">
         <v>5.7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>8.4</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>6.6</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>8.8</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>7.7</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>9.8</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>7.8</v>
       </c>
-      <c r="K3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="0" t="n">
+      <c r="K3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
+      <c r="B4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="n">
         <v>9.5</v>
       </c>
-      <c r="K4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="K4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>8.8</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>8.1</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>4.8</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>8.7</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>8.3</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <v>7.6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>6.1</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>5.8</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>4.6</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>7.3</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>6.6</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="0" t="n">
+      <c r="K6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>5.5</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>4.8</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>4.7</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>6.7</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>7.7</v>
       </c>
-      <c r="K7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="0" t="n">
+      <c r="K7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="n">
         <v>7.4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>8.3</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>8.9</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>5.6</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>5.5</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>4.8</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>4.6</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>8.2</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="1" t="n">
         <v>7.6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>3.8</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>2.6</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>3.4</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>3.2</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <v>5.4</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <v>5.3</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="1" t="n">
         <v>1.6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>5.2</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>4.5</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>5.5</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>5.5</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>6.2</v>
       </c>
-      <c r="K10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="0" t="n">
+      <c r="K10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="n">
         <v>6.6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>9.4</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>6.3</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>9.8</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>9.6</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <v>9.6</v>
       </c>
-      <c r="K11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="0" t="n">
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0" t="n">
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="K12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="K12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>9.3</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>6.7</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <v>7.3</v>
       </c>
-      <c r="K13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="0" t="n">
+      <c r="K13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="n">
         <v>8.8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>8.8</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>6.1</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>7.6</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>7.3</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <v>8.2</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <v>9.5</v>
       </c>
-      <c r="K14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="0" t="n">
+      <c r="K14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="n">
         <v>6.2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>7.8</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>6.4</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>5.6</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <v>6.1</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="1" t="n">
         <v>6.7</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>6.7</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>8.6</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <v>7.7</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <v>6.6</v>
       </c>
-      <c r="K16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="0" t="n">
+      <c r="K16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="n">
         <v>7.5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>8.3</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>6.3</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>4.5</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
         <v>8.8</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="1" t="n">
         <v>9.9</v>
       </c>
-      <c r="K17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="0" t="n">
+      <c r="K17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="n">
         <v>6.2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>6.1</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>6.7</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="1" t="n">
         <v>7.8</v>
       </c>
-      <c r="K18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="0" t="n">
+      <c r="K18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="n">
         <v>7.8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>5.3</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>3.6</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="1" t="n">
         <v>6.9</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="1" t="n">
         <v>7.1</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="L19" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="L19" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>7.7</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>7.6</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
         <v>7.7</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="1" t="n">
         <v>8.3</v>
       </c>
-      <c r="K20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="0" t="n">
+      <c r="K20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="n">
         <v>6.8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="n">
         <v>4.3</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>4.9</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="0" t="n">
+      <c r="I21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="0" t="n">
+      <c r="K21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="n">
         <v>2.5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>7.1</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>9.3</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <v>8.1</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="1" t="n">
         <v>7.6</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="1" t="n">
         <v>8.6</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="1" t="n">
         <v>9.5</v>
       </c>
-      <c r="K22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="0" t="n">
+      <c r="K22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="n">
         <v>7.3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <v>7.3</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23" s="1" t="n">
         <v>8.1</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>7.7</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>6.3</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <v>5.4</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="1" t="n">
         <v>7.8</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="1" t="n">
         <v>8.3</v>
       </c>
-      <c r="K24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="0" t="n">
+      <c r="K24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="n">
         <v>7.6</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>3.5</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>7.3</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>5.6</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="1" t="n">
         <v>8.7</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="1" t="n">
         <v>6.1</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="1" t="n">
         <v>9.9</v>
       </c>
-      <c r="K25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="0" t="n">
+      <c r="K25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="n">
         <v>6.9</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>8.2</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>6.3</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>6.6</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>7.9</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="1" t="n">
         <v>9.5</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="1" t="n">
         <v>5.3</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="1" t="n">
         <v>7.8</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26" s="1" t="n">
         <v>6.3</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>9.5</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="1" t="n">
         <v>6.1</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="1" t="n">
         <v>6.4</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="1" t="n">
         <v>7.8</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="K27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="0" t="n">
+      <c r="K27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="n">
         <v>7.5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>3.7</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>6.1</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="1" t="n">
         <v>3.6</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="1" t="n">
         <v>6.3</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="1" t="n">
         <v>6.2</v>
       </c>
-      <c r="K28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="0" t="n">
+      <c r="K28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="n">
         <v>4.8</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>6.3</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="1" t="n">
         <v>5.7</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="H29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="0" t="n">
+      <c r="H29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="0" t="n">
+      <c r="K29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="n">
         <v>7.3</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>6.4</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="1" t="n">
         <v>5.5</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="1" t="n">
         <v>5.4</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31" s="1" t="n">
         <v>3.5</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="K31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="0" t="n">
+      <c r="K31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="n">
         <v>6.2</v>
       </c>
     </row>
@@ -2018,1108 +2027,1108 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>8.3</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>9.8</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>9.7</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>8.8</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>8.4</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="0" t="n">
+      <c r="K2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>8.4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>7.6</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>7.8</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>7.3</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>6.7</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>9.6</v>
       </c>
-      <c r="K3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="0" t="n">
+      <c r="K3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="n">
         <v>5.8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>9.8</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>8.8</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>9.8</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>8.4</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>7.7</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>9.3</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>8.3</v>
       </c>
-      <c r="K4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="0" t="n">
+      <c r="K4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="n">
         <v>8.5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>7.8</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>8.9</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>8.6</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>5.5</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>9.2</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="0" t="n">
+      <c r="K5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="n">
         <v>6.5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>5.4</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="0" t="n">
+      <c r="H6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>8.4</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>9.2</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>8.3</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>8.2</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>4.8</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>6.4</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>7.8</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>7.6</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>7.1</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>7.1</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>8.2</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="K8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="0" t="n">
+      <c r="K8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>8.2</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>8.7</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>8.8</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>8.8</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>7.8</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>7.1</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="0" t="n">
+      <c r="K9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="n">
         <v>7.7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>9.3</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>8.6</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>7.3</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>6.4</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>9.5</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>9.4</v>
       </c>
-      <c r="K10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="0" t="n">
+      <c r="K10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="n">
         <v>5.9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>8.4</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>9.2</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>7.1</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>5.2</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>6.1</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>4.1</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="K11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="0" t="n">
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>8.2</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>8.3</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="K12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="0" t="n">
+      <c r="K12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>8.6</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>9.2</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>8.7</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>4.7</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <v>6.7</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <v>7.9</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="1" t="n">
         <v>6.6</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>9.2</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>8.3</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>9.8</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>9.5</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>7.3</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <v>4.7</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <v>7.1</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <v>9.5</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="1" t="n">
         <v>7.8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>6.1</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>9.1</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>6.3</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>4.5</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <v>7.8</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="1" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>8.6</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>8.7</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>4.7</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <v>4.9</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <v>7.8</v>
       </c>
-      <c r="K16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="0" t="n">
+      <c r="K16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="n">
         <v>7.6</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>8.2</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>9.8</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>9.2</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>6.3</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
         <v>8.4</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>9.5</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="1" t="n">
         <v>6.3</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="0" t="n">
+      <c r="K17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="n">
         <v>8.5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>9.2</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>8.6</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>9.2</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <v>7.1</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="1" t="n">
         <v>6.2</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="1" t="n">
         <v>8.7</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="1" t="n">
         <v>9.2</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="1" t="n">
         <v>6.6</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>7.7</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>7.9</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>9.5</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>8.8</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>6.2</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <v>6.1</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="0" t="n">
+      <c r="K19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="n">
         <v>6.8</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>4.5</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>6.6</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>1.9</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="1" t="n">
         <v>8.4</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20" s="1" t="n">
         <v>3.7</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="1" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="0" t="n">
+      <c r="B21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>4.3</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>5.5</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <v>3.8</v>
       </c>
-      <c r="H21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="0" t="n">
+      <c r="H21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="n">
         <v>9.3</v>
       </c>
-      <c r="K21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="K21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>7.6</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>6.6</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>9.8</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="1" t="n">
         <v>6.6</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="K22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="0" t="n">
+      <c r="K22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>8.2</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>8.3</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="1" t="n">
         <v>4.9</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="0" t="n">
+      <c r="K23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="n">
         <v>5.2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>4.2</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>8.1</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>5.1</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>5.8</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <v>4.2</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="1" t="n">
         <v>4.9</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="1" t="n">
         <v>3.8</v>
       </c>
-      <c r="J24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="0" t="n">
+      <c r="J24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24" s="1" t="n">
         <v>4.8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>3.8</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>2.2</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="0" t="n">
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="0" t="n">
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>8.3</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>8.2</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>3.6</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="1" t="n">
         <v>4.1</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="1" t="n">
         <v>4.6</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="1" t="n">
         <v>2.9</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="0" t="n">
+      <c r="K26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="n">
         <v>3.7</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>7.6</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>8.2</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="1" t="n">
         <v>7.9</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="1" t="n">
         <v>6.3</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27" s="1" t="n">
         <v>9.1</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>7.6</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>9.1</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>8.8</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="1" t="n">
         <v>7.1</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="1" t="n">
         <v>8.2</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="1" t="n">
         <v>8.8</v>
       </c>
-      <c r="K28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="0" t="n">
+      <c r="K28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="n">
         <v>8.6</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>8.2</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>6.7</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>8.8</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>9.8</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="1" t="n">
         <v>6.3</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="1" t="n">
         <v>7.1</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="1" t="n">
         <v>6.1</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29" s="1" t="n">
         <v>7.9</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="L29" s="1" t="n">
         <v>6.7</v>
       </c>
     </row>
@@ -3147,1118 +3156,1119 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>9.2</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>5.6</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>5.7</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>8.8</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>9.2</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>3.1</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>5.5</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>9.6</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>7.8</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>5.8</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>3.6</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>3.8</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>8.2</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="1" t="n">
         <v>6.4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>3.6</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>6.2</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>2.7</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>4.4</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>6.1</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>5.4</v>
       </c>
-      <c r="K4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="0" t="n">
+      <c r="K4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>9.3</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>8.9</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>6.7</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>5.8</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>6.7</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>9.8</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>7.1</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>5.2</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <v>5.4</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <v>5.6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>7.6</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>8.1</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>5.1</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>2.9</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>6.6</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>3.2</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="0" t="n">
+      <c r="K6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="n">
         <v>8.2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>7.7</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>9.3</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>7.8</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>9.1</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>3.6</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>2.2</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>8.2</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <v>3.6</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="1" t="n">
         <v>5.8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>4.8</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>8.2</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>9.2</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>8.4</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>4.6</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>3.2</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>5.9</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>7.8</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="1" t="n">
         <v>9.7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>4.3</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>4.8</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>4.5</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>7.6</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>2.3</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>7.7</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>5.6</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <v>4.6</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="1" t="n">
         <v>3.6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>7.8</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>6.9</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>2.4</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>4.6</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>5.6</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>7.8</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="1" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>9.1</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>6.4</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>5.3</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>4.2</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>5.8</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <v>8.6</v>
       </c>
-      <c r="K11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="0" t="n">
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="n">
         <v>3.4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>3.5</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>4.3</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>4.2</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>4.6</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>8.7</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>5.6</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>4.8</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>6.6</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>4.2</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>6.2</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <v>9.1</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <v>2.4</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="1" t="n">
         <v>7.7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>6.3</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>8.6</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>9.9</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>7.3</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>5.6</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <v>8.4</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <v>5.3</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="1" t="n">
         <v>9.1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>3.2</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>8.4</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>3.4</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>8.8</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>4.6</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>3.4</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <v>8.2</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <v>3.4</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <v>9.2</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="1" t="n">
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>9.1</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>9.2</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>3.7</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>8.3</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>4.6</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>5.1</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <v>7.3</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16" s="1" t="n">
         <v>5.6</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>9.8</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>7.8</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>8.8</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>5.7</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>4.6</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="1" t="n">
         <v>9.9</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17" s="1" t="n">
         <v>1.9</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="1" t="n">
         <v>7.4</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>8.5</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>4.9</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>3.3</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <v>6.4</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="1" t="n">
         <v>8.6</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="1" t="n">
         <v>9.2</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>8.2</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>5.1</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>5.4</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>8.4</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <v>3.8</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>5.4</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="1" t="n">
         <v>5.4</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="1" t="n">
         <v>3.7</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="1" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>2.6</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>7.6</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>3.2</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
         <v>8.9</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>6.6</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="1" t="n">
         <v>5.7</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="1" t="n">
         <v>8.4</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20" s="1" t="n">
         <v>3.2</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="1" t="n">
         <v>7.4</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>4.1</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>3.1</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <v>4.6</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="1" t="n">
         <v>1.9</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="1" t="n">
         <v>7.6</v>
       </c>
-      <c r="K21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="0" t="n">
+      <c r="K21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>7.8</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>5.4</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>8.4</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>9.2</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="1" t="n">
         <v>5.1</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <v>4.6</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="1" t="n">
         <v>8.3</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="1" t="n">
         <v>4.8</v>
       </c>
-      <c r="K22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="0" t="n">
+      <c r="K22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="n">
         <v>7.2</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>9.9</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>8.3</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>8.9</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <v>5.8</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="1" t="n">
         <v>6.1</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="1" t="n">
         <v>5.1</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="1" t="n">
         <v>4.8</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23" s="1" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>9.6</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>9.4</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <v>4.1</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="1" t="n">
         <v>3.6</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <v>5.7</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="1" t="n">
         <v>5.2</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="1" t="n">
         <v>3.8</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24" s="1" t="n">
         <v>6.5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>2.8</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>7.6</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>6.2</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <v>4.7</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="1" t="n">
         <v>3.4</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="1" t="n">
         <v>4.2</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="1" t="n">
         <v>2.2</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>8.2</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>8.4</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="1" t="n">
         <v>2.4</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="1" t="n">
         <v>3.6</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="1" t="n">
         <v>5.6</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="1" t="n">
         <v>7.6</v>
       </c>
-      <c r="K27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="0" t="n">
+      <c r="K27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="n">
         <v>8.5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>9.6</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>9.4</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>3.7</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>3.8</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="1" t="n">
         <v>9.6</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="1" t="n">
         <v>3.8</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="1" t="n">
         <v>2.6</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="1" t="n">
         <v>7.9</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="1" t="n">
         <v>8.4</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28" s="1" t="n">
         <v>8.2</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>4.8</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>5.9</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>7.6</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>7.8</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="1" t="n">
         <v>9.3</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="1" t="n">
         <v>7.3</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="0" t="n">
+      <c r="K29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="n">
         <v>9.5</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>9.2</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>9.5</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>7.1</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="1" t="n">
         <v>9.5</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="1" t="n">
         <v>6.2</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="1" t="n">
         <v>5.3</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31" s="1" t="n">
         <v>6.6</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31" s="1" t="n">
         <v>7.7</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31" s="1" t="n">
         <v>5.6</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31" s="1" t="n">
         <v>9.2</v>
       </c>
     </row>
@@ -4278,168 +4288,206 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>6.46</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>7.21666666666667</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>5.66</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>5.97666666666667</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>5.76</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>6.02333333333333</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>5.93333333333333</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>6.23666666666667</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>7.36666666666667</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>2.14333333333333</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="1" t="n">
         <v>5.96666666666667</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>7.24642857142857</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>7.73214285714286</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>7.91071428571429</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>7.01428571428572</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>6.13571428571429</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>6.04642857142857</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>6.44642857142857</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>5.50714285714286</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>6.91785714285714</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>2.49285714285714</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="1" t="n">
         <v>5.89285714285714</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>6.61071428571428</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>7.03928571428571</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>6.56428571428572</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>5.72857142857143</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>5.7</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>5.63928571428571</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>4.75714285714286</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>6.39642857142857</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>6.16785714285714</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>3.08214285714286</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="1" t="n">
         <v>6.18928571428571</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>6.70333333333333</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>7.26592592592593</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>6.61222222222222</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>6.16888888888889</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>5.80148148148148</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>5.86407407407407</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>5.53925925925926</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>6.73222222222222</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>2.50777777777778</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>5.99555555555556</v>
       </c>
     </row>
   </sheetData>
@@ -4466,1410 +4514,2516 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="L1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="0" t="n">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="L2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="H3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="L3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="0" t="s">
+      <c r="J4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="K4" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="L4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="J5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="K5" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="L5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="J6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="L6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="J7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="L7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="0" t="s">
+      <c r="I8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="J8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="L8" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="0" t="n">
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>8.22</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>8.22</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>8.87</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>8.55</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>8.13</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>8.54</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>8.55</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>8.63</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="B20" s="1" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>8.37</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>9.12</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="D23" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="E23" s="1" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L29" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="L31" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="L33" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="K34" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="L34" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="L35" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="L36" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="L37" s="0" t="s">
-        <v>221</v>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
